--- a/static/单验报告模板.xlsx
+++ b/static/单验报告模板.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>验收标准定义：</t>
   </si>
@@ -609,19 +609,22 @@
     <t>一致</t>
   </si>
   <si>
-    <t>460-00-6362-42002</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>G76A412</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>6362</t>
+    <t>460-00-6184-55666</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>G78D972</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6184</t>
+  </si>
+  <si>
+    <t>-57.52</t>
   </si>
   <si>
     <t>100.00%</t>
@@ -4550,10 +4553,10 @@
         <v>66</v>
       </c>
       <c r="E16" s="110" t="n">
-        <v>121.517565</v>
+        <v>121.487801</v>
       </c>
       <c r="H16" s="110" t="n">
-        <v>121.519081</v>
+        <v>121.488121</v>
       </c>
       <c r="K16" s="178" t="s">
         <v>147</v>
@@ -4565,10 +4568,10 @@
         <v>67</v>
       </c>
       <c r="E17" s="165" t="n">
-        <v>31.285859</v>
+        <v>31.190701</v>
       </c>
       <c r="H17" s="165" t="n">
-        <v>31.284765</v>
+        <v>31.190571</v>
       </c>
       <c r="K17" s="178" t="s">
         <v>147</v>
@@ -4710,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="E24" s="178" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F24" s="178" t="s">
         <v>70</v>
@@ -4752,7 +4755,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="178" t="n">
-        <v>6362</v>
+        <v>6184</v>
       </c>
       <c r="H26" s="178" t="s">
         <v>152</v>
@@ -4924,8 +4927,8 @@
       <c r="B36" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="236" t="n">
-        <v>0</v>
+      <c r="E36" s="236" t="s">
+        <v>153</v>
       </c>
       <c r="K36" s="110" t="s">
         <v>70</v>
@@ -4939,7 +4942,7 @@
         <v>93</v>
       </c>
       <c r="E37" s="201" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K37" s="201" t="s">
         <v>70</v>
@@ -4953,7 +4956,7 @@
         <v>94</v>
       </c>
       <c r="E38" s="201" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K38" s="201" t="s">
         <v>70</v>
@@ -4981,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="E40" s="201" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K40" s="201" t="s">
         <v>70</v>
